--- a/Input/Premissas/Base_Check.xlsx
+++ b/Input/Premissas/Base_Check.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\projetos_alelimarj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alclima\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EFAF653-25EE-4B03-A566-DC9848C2EF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B968C8D4-2BB9-4861-BB68-CE61D6455670}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Check" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateCount="1" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,20 +442,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FAFE7A-18F0-431F-A0D6-47AD85660D88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -464,7 +463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -472,7 +471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -480,7 +479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -488,7 +487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -496,7 +495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -504,15 +503,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -520,7 +519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -528,7 +527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -536,7 +535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -544,7 +543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -552,7 +551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
